--- a/biology/Botanique/Lecythis_ollaria/Lecythis_ollaria.xlsx
+++ b/biology/Botanique/Lecythis_ollaria/Lecythis_ollaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lecythis ollaria est une espèce de plantes à fleurs dicotylédones de la famille des Lécitidacées originaires du Vénézuela.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description de l'espèce a été publiée en 1758 par le botaniste suédois Pehr Loefling[2]. L'épithète spécifique « ollaria » fait référence à son fruit en forme de pot[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description de l'espèce a été publiée en 1758 par le botaniste suédois Pehr Loefling. L'épithète spécifique « ollaria » fait référence à son fruit en forme de pot.
 Le genre Lecythis est assigné à la famille des Lecythidaceae, dans l'ordre des Ericales.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est localement nommé wabi[réf. nécessaire].
-Le bois est parfois commercialisé, parmi d'autres espèces, sous le nom de manbarklak[réf. nécessaire], de même que les arbres du genre Eschweilera, très proches. L'un des synonymes de Lecythis ollaria est d'ailleurs Eschweilera cordata (O.Berg) Miers [4]. 
+Le bois est parfois commercialisé, parmi d'autres espèces, sous le nom de manbarklak[réf. nécessaire], de même que les arbres du genre Eschweilera, très proches. L'un des synonymes de Lecythis ollaria est d'ailleurs Eschweilera cordata (O.Berg) Miers . 
 </t>
         </is>
       </c>
